--- a/artfynd/A 58074-2024 artfynd.xlsx
+++ b/artfynd/A 58074-2024 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131139159</v>
       </c>
       <c r="B2" t="n">
-        <v>89193</v>
+        <v>89194</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/artfynd/A 58074-2024 artfynd.xlsx
+++ b/artfynd/A 58074-2024 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131139159</v>
       </c>
       <c r="B2" t="n">
-        <v>89194</v>
+        <v>89195</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
